--- a/YESInteractiveStudio/InteractiveStudio/bin/Lang/InteractiveStudio.EN.xlsx
+++ b/YESInteractiveStudio/InteractiveStudio/bin/Lang/InteractiveStudio.EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\YESInteractiveStudio\InteractiveStudio\bin\Lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53E08DA-2320-4975-A0B6-46B74E714ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5CB148-3D34-4D99-944D-550A3C485556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1620" windowWidth="21600" windowHeight="13605" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
+    <workbookView xWindow="4830" yWindow="1035" windowWidth="21600" windowHeight="13605" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="119">
   <si>
     <t>Port</t>
   </si>
@@ -368,6 +368,31 @@
   </si>
   <si>
     <t>Edit PlayFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile control</t>
+  </si>
+  <si>
+    <t>● Enter any address in your phone's browser</t>
+  </si>
+  <si>
+    <t>Web server</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>● Or scan QR code</t>
+  </si>
+  <si>
+    <t>MobileControlForm</t>
+  </si>
+  <si>
+    <t>Mobile Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F597DAC-B72D-418A-8EB1-77DE87FB54EF}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C104" sqref="A1:C104"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1902,6 +1927,83 @@
         <v>100</v>
       </c>
     </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="C131" s="2"/>

--- a/YESInteractiveStudio/InteractiveStudio/bin/Lang/InteractiveStudio.EN.xlsx
+++ b/YESInteractiveStudio/InteractiveStudio/bin/Lang/InteractiveStudio.EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\YESInteractiveStudio\InteractiveStudio\bin\Lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5CB148-3D34-4D99-944D-550A3C485556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E11114-688F-488F-B073-A213746209F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1035" windowWidth="21600" windowHeight="13605" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
+    <workbookView xWindow="5655" yWindow="1950" windowWidth="21600" windowHeight="13605" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="121">
   <si>
     <t>Port</t>
   </si>
@@ -394,6 +394,12 @@
   <si>
     <t>Mobile Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail to Get HotBackUp</t>
+  </si>
+  <si>
+    <t>The Slave Sender must be the same as the Master Sender in HotBackUp</t>
   </si>
 </sst>
 </file>
@@ -772,7 +778,7 @@
   <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:C111"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2004,6 +2010,28 @@
         <v>118</v>
       </c>
     </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="C131" s="2"/>
